--- a/data/trans_orig/P17E-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P17E-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>20520</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13019</v>
+        <v>13424</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29638</v>
+        <v>29796</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1390030858518032</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08818661483293189</v>
+        <v>0.09093191983849297</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2007661915172671</v>
+        <v>0.201835567731951</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>54</v>
@@ -765,19 +765,19 @@
         <v>55914</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43326</v>
+        <v>42813</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>69690</v>
+        <v>71548</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1707820023524356</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1323339547408526</v>
+        <v>0.1307690476781091</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2128600796498763</v>
+        <v>0.2185349333983607</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>75</v>
@@ -786,19 +786,19 @@
         <v>76434</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>61428</v>
+        <v>62256</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>92943</v>
+        <v>93393</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1609058934958476</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1293159512706292</v>
+        <v>0.1310580961509148</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1956605095018788</v>
+        <v>0.1966070302010705</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>127105</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>117987</v>
+        <v>117829</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>134606</v>
+        <v>134201</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8609969141481968</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7992338084827326</v>
+        <v>0.7981644322680492</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9118133851670678</v>
+        <v>0.9090680801615071</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>262</v>
@@ -836,19 +836,19 @@
         <v>271483</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>257707</v>
+        <v>255849</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>284071</v>
+        <v>284584</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8292179976475644</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7871399203501236</v>
+        <v>0.7814650666016393</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8676660452591473</v>
+        <v>0.8692309523218907</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>391</v>
@@ -857,19 +857,19 @@
         <v>398589</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>382080</v>
+        <v>381630</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>413595</v>
+        <v>412767</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8390941065041524</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8043394904981211</v>
+        <v>0.8033929697989295</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8706840487293708</v>
+        <v>0.8689419038490853</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>44936</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33031</v>
+        <v>33627</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58410</v>
+        <v>59718</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1898047464963735</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.139517479745919</v>
+        <v>0.1420356483875495</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.246717420940878</v>
+        <v>0.2522422878789986</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>62</v>
@@ -982,19 +982,19 @@
         <v>65297</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>51177</v>
+        <v>51264</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>80859</v>
+        <v>80968</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1961398263053367</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1537258493813192</v>
+        <v>0.1539894250958185</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2428855101666499</v>
+        <v>0.2432157213367678</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>106</v>
@@ -1003,19 +1003,19 @@
         <v>110233</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>91960</v>
+        <v>92100</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>129704</v>
+        <v>129567</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1935069629485801</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1614293818986184</v>
+        <v>0.16167680457486</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2276869924700734</v>
+        <v>0.2274472149401372</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>191814</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>178340</v>
+        <v>177032</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>203719</v>
+        <v>203123</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8101952535036265</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7532825790591215</v>
+        <v>0.7477577121210019</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8604825202540807</v>
+        <v>0.8579643516124507</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>262</v>
@@ -1053,19 +1053,19 @@
         <v>267611</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>252049</v>
+        <v>251940</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>281731</v>
+        <v>281644</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8038601736946633</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7571144898333499</v>
+        <v>0.7567842786632322</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8462741506186808</v>
+        <v>0.8460105749041815</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>455</v>
@@ -1074,19 +1074,19 @@
         <v>459425</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>439954</v>
+        <v>440091</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>477698</v>
+        <v>477558</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8064930370514199</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7723130075299266</v>
+        <v>0.7725527850598628</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8385706181013816</v>
+        <v>0.83832319542514</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>36431</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26825</v>
+        <v>26405</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48341</v>
+        <v>47835</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1950982202753148</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1436566912661504</v>
+        <v>0.1414073018989542</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2588810061805352</v>
+        <v>0.2561695007098156</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -1199,19 +1199,19 @@
         <v>61529</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>48611</v>
+        <v>48502</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>76390</v>
+        <v>74425</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2284934166769944</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1805217383915337</v>
+        <v>0.1801158207862582</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2836800651648797</v>
+        <v>0.276383745514569</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>97</v>
@@ -1220,19 +1220,19 @@
         <v>97960</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>80717</v>
+        <v>81519</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>116386</v>
+        <v>115267</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2148186132608909</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1770060169240025</v>
+        <v>0.1787642991657655</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2552253707870504</v>
+        <v>0.2527713362001696</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>150299</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>138389</v>
+        <v>138895</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>159905</v>
+        <v>160325</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8049017797246852</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7411189938194649</v>
+        <v>0.7438304992901844</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8563433087338497</v>
+        <v>0.8585926981010458</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>205</v>
@@ -1270,19 +1270,19 @@
         <v>207754</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>192893</v>
+        <v>194858</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>220672</v>
+        <v>220781</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7715065833230056</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7163199348351207</v>
+        <v>0.723616254485431</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8194782616084664</v>
+        <v>0.8198841792137417</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>354</v>
@@ -1291,19 +1291,19 @@
         <v>358054</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>339628</v>
+        <v>340747</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>375297</v>
+        <v>374495</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7851813867391091</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7447746292129493</v>
+        <v>0.7472286637998292</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8229939830759965</v>
+        <v>0.8212357008342346</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>25870</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18590</v>
+        <v>17794</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35074</v>
+        <v>34448</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3576677950786475</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2570173920705812</v>
+        <v>0.2460124544682813</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4849072455975481</v>
+        <v>0.4762590641150667</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -1416,19 +1416,19 @@
         <v>22051</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14264</v>
+        <v>13591</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31040</v>
+        <v>29997</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.252568229151036</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1633822290224776</v>
+        <v>0.1556728775125041</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3555306856150018</v>
+        <v>0.3435807566026733</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -1437,19 +1437,19 @@
         <v>47921</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>36910</v>
+        <v>36925</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>60823</v>
+        <v>60136</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3001886429650528</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2312099586292011</v>
+        <v>0.2313053551049473</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3810092169114194</v>
+        <v>0.3767073208077828</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>46461</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37257</v>
+        <v>37883</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>53741</v>
+        <v>54537</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6423322049213525</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5150927544024519</v>
+        <v>0.5237409358849334</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7429826079294184</v>
+        <v>0.7539875455317191</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>66</v>
@@ -1487,19 +1487,19 @@
         <v>65255</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>56266</v>
+        <v>57309</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>73042</v>
+        <v>73715</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.747431770848964</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6444693143849988</v>
+        <v>0.6564192433973269</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8366177709775224</v>
+        <v>0.8443271224874959</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>112</v>
@@ -1508,19 +1508,19 @@
         <v>111716</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>98814</v>
+        <v>99501</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>122727</v>
+        <v>122712</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6998113570349472</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6189907830885807</v>
+        <v>0.6232926791922173</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7687900413707989</v>
+        <v>0.7686946448950528</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>127758</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>108607</v>
+        <v>108467</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>147792</v>
+        <v>147638</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1985555371507782</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1687919492699298</v>
+        <v>0.1685741371219269</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2296908406218542</v>
+        <v>0.2294525225576891</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>196</v>
@@ -1633,19 +1633,19 @@
         <v>204790</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>181077</v>
+        <v>178873</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>232457</v>
+        <v>232093</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.201387898348797</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.178068681935202</v>
+        <v>0.1759014932404747</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2285951070518697</v>
+        <v>0.2282369958329298</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>323</v>
@@ -1654,19 +1654,19 @@
         <v>332548</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>298324</v>
+        <v>302987</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>368347</v>
+        <v>365792</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2002902579776586</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1796773722669859</v>
+        <v>0.1824856047815253</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2218515590145603</v>
+        <v>0.2203125475453868</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>515679</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>495645</v>
+        <v>495799</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>534830</v>
+        <v>534970</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8014444628492218</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7703091593781458</v>
+        <v>0.7705474774423109</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8312080507300702</v>
+        <v>0.831425862878073</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>795</v>
@@ -1704,19 +1704,19 @@
         <v>812104</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>784437</v>
+        <v>784801</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>835817</v>
+        <v>838021</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.798612101651203</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7714048929481303</v>
+        <v>0.7717630041670703</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.821931318064798</v>
+        <v>0.8240985067595253</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1312</v>
@@ -1725,19 +1725,19 @@
         <v>1327784</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1291985</v>
+        <v>1294540</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1362008</v>
+        <v>1357345</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7997097420223414</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7781484409854397</v>
+        <v>0.7796874524546132</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8203226277330142</v>
+        <v>0.8175143952184747</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>50871</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37860</v>
+        <v>38675</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65812</v>
+        <v>64828</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1898481398404439</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1412921587635469</v>
+        <v>0.1443315484355022</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.245606091293833</v>
+        <v>0.2419339686502028</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>58</v>
@@ -2090,19 +2090,19 @@
         <v>62078</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>47803</v>
+        <v>47544</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>76842</v>
+        <v>77526</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1518146328917667</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1169050897445309</v>
+        <v>0.1162701835217274</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1879197614185486</v>
+        <v>0.1895930864870777</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>106</v>
@@ -2111,19 +2111,19 @@
         <v>112949</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>95035</v>
+        <v>93995</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>133159</v>
+        <v>135164</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1668713553568255</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1404049982281176</v>
+        <v>0.1388679246010788</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.196729901477139</v>
+        <v>0.1996924036576878</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>217086</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>202145</v>
+        <v>203129</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>230097</v>
+        <v>229282</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8101518601595561</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.754393908706167</v>
+        <v>0.7580660313497972</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8587078412364531</v>
+        <v>0.8556684515644979</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>320</v>
@@ -2161,19 +2161,19 @@
         <v>346828</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>332064</v>
+        <v>331380</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>361103</v>
+        <v>361362</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8481853671082333</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8120802385814514</v>
+        <v>0.8104069135129225</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.883094910255469</v>
+        <v>0.8837298164782728</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>518</v>
@@ -2182,19 +2182,19 @@
         <v>563914</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>543704</v>
+        <v>541699</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>581828</v>
+        <v>582868</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8331286446431745</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8032700985228606</v>
+        <v>0.8003075963423122</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8595950017718823</v>
+        <v>0.8611320753989211</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>51359</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38008</v>
+        <v>39192</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65473</v>
+        <v>65186</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2380319749549956</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1761520968880715</v>
+        <v>0.1816390425680576</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3034432395853176</v>
+        <v>0.3021151882389224</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>63</v>
@@ -2307,19 +2307,19 @@
         <v>64480</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>51175</v>
+        <v>51252</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>80896</v>
+        <v>81067</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1734360159853266</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.137646764040104</v>
+        <v>0.1378541742622894</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2175890487996604</v>
+        <v>0.2180506849110453</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>110</v>
@@ -2328,19 +2328,19 @@
         <v>115840</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>97647</v>
+        <v>96526</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>137239</v>
+        <v>136626</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1971577364075043</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1661941318902535</v>
+        <v>0.1642855994425392</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2335795144364047</v>
+        <v>0.2325347031755043</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>164408</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>150294</v>
+        <v>150581</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>177759</v>
+        <v>176575</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7619680250450044</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6965567604146823</v>
+        <v>0.6978848117610776</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8238479031119283</v>
+        <v>0.8183609574319425</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>285</v>
@@ -2378,19 +2378,19 @@
         <v>307302</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>290886</v>
+        <v>290715</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>320607</v>
+        <v>320530</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8265639840146733</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7824109512003393</v>
+        <v>0.7819493150889547</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8623532359598958</v>
+        <v>0.8621458257377106</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>437</v>
@@ -2399,19 +2399,19 @@
         <v>471709</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>450310</v>
+        <v>450923</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>489902</v>
+        <v>491023</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8028422635924957</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7664204855635953</v>
+        <v>0.7674652968244957</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8338058681097466</v>
+        <v>0.8357144005574608</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>41775</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32226</v>
+        <v>30667</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54338</v>
+        <v>53976</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2188682750391017</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.168839330814879</v>
+        <v>0.1606740975682276</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2846893241846981</v>
+        <v>0.2827937785420105</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -2524,19 +2524,19 @@
         <v>54510</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42591</v>
+        <v>42506</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>69252</v>
+        <v>68641</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2113342103695767</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1651230202657674</v>
+        <v>0.164796021710689</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2684888555813723</v>
+        <v>0.2661192473657768</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>92</v>
@@ -2545,19 +2545,19 @@
         <v>96285</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>78171</v>
+        <v>79752</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>112475</v>
+        <v>114862</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2145383181120957</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1741787446367202</v>
+        <v>0.1776994570612223</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2506127989710278</v>
+        <v>0.2559323938418933</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>149092</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>136529</v>
+        <v>136891</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>158641</v>
+        <v>160200</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7811317249608983</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7153106758153019</v>
+        <v>0.7172062214579893</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8311606691851208</v>
+        <v>0.8393259024317721</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>193</v>
@@ -2595,19 +2595,19 @@
         <v>203423</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>188681</v>
+        <v>189292</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>215342</v>
+        <v>215427</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7886657896304233</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7315111444186276</v>
+        <v>0.7338807526342238</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8348769797342326</v>
+        <v>0.835203978289311</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>332</v>
@@ -2616,19 +2616,19 @@
         <v>352515</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>336325</v>
+        <v>333938</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>370629</v>
+        <v>369048</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7854616818879043</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7493872010289719</v>
+        <v>0.7440676061581065</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8258212553632798</v>
+        <v>0.8223005429387775</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>19083</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11371</v>
+        <v>12034</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29260</v>
+        <v>28430</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1825662526132924</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1087844938697653</v>
+        <v>0.1151298921558177</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2799235189203708</v>
+        <v>0.2719856131843728</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -2741,19 +2741,19 @@
         <v>31310</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22681</v>
+        <v>22404</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41763</v>
+        <v>41444</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2848196896834209</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2063294948103789</v>
+        <v>0.2038017084683522</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3799103381371167</v>
+        <v>0.3770079374641094</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -2762,19 +2762,19 @@
         <v>50393</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37670</v>
+        <v>37638</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65072</v>
+        <v>65754</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2349805881602675</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1756545003727722</v>
+        <v>0.1755050786663688</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3034281085413204</v>
+        <v>0.3066076213111913</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>85444</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>75267</v>
+        <v>76097</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>93156</v>
+        <v>92493</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8174337473867076</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7200764810796298</v>
+        <v>0.7280143868156268</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8912155061302354</v>
+        <v>0.8848701078441822</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>71</v>
@@ -2812,19 +2812,19 @@
         <v>78618</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>68165</v>
+        <v>68484</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>87247</v>
+        <v>87524</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7151803103165791</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6200896618628833</v>
+        <v>0.6229920625358906</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7936705051896213</v>
+        <v>0.7961982915316477</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>146</v>
@@ -2833,19 +2833,19 @@
         <v>164062</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>149383</v>
+        <v>148701</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>176785</v>
+        <v>176817</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7650194118397324</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6965718914586795</v>
+        <v>0.6933923786888085</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8243454996272277</v>
+        <v>0.8244949213336308</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>163088</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>139076</v>
+        <v>141215</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>187337</v>
+        <v>190666</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2093244209799326</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1785040807606613</v>
+        <v>0.1812496401093264</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2404469890613222</v>
+        <v>0.2447206771183267</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>201</v>
@@ -2958,19 +2958,19 @@
         <v>212378</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>185925</v>
+        <v>188761</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>240392</v>
+        <v>241348</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1849098490022605</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1618782141388682</v>
+        <v>0.1643475523045621</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2093007184693438</v>
+        <v>0.2101329535871958</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>353</v>
@@ -2979,19 +2979,19 @@
         <v>375466</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>342587</v>
+        <v>342296</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>416260</v>
+        <v>415187</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1947776449125441</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1777207952634017</v>
+        <v>0.1775701233987904</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2159400446355757</v>
+        <v>0.2153831944770218</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>616030</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>591781</v>
+        <v>588452</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>640042</v>
+        <v>637903</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7906755790200674</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7595530109386778</v>
+        <v>0.7552793228816733</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8214959192393386</v>
+        <v>0.8187503598906737</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>869</v>
@@ -3029,19 +3029,19 @@
         <v>936171</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>908157</v>
+        <v>907201</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>962624</v>
+        <v>959788</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8150901509977394</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7906992815306563</v>
+        <v>0.7898670464128041</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8381217858611317</v>
+        <v>0.8356524476954378</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1433</v>
@@ -3050,19 +3050,19 @@
         <v>1552201</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1511407</v>
+        <v>1512480</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1585080</v>
+        <v>1585371</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8052223550874559</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7840599553644243</v>
+        <v>0.7846168055229782</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8222792047365982</v>
+        <v>0.8224298766012096</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>51048</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38215</v>
+        <v>39974</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>66159</v>
+        <v>66771</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1848083775384125</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1383489197109671</v>
+        <v>0.1447171487795808</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2395175554218593</v>
+        <v>0.2417304888467163</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>64</v>
@@ -3415,19 +3415,19 @@
         <v>70735</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>56523</v>
+        <v>56401</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>88256</v>
+        <v>89564</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1629399827713123</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1302029654387</v>
+        <v>0.1299219833817546</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2033017781513203</v>
+        <v>0.2063134473837492</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>110</v>
@@ -3436,19 +3436,19 @@
         <v>121782</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>101529</v>
+        <v>102129</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>143104</v>
+        <v>145331</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1714436869729409</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.142931119118079</v>
+        <v>0.1437764794677573</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.201460033460369</v>
+        <v>0.2045957905369366</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>225171</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>210060</v>
+        <v>209448</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>238004</v>
+        <v>236245</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8151916224615875</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7604824445781407</v>
+        <v>0.7582695111532834</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8616510802890329</v>
+        <v>0.8552828512204191</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>336</v>
@@ -3486,19 +3486,19 @@
         <v>363379</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>345858</v>
+        <v>344550</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>377591</v>
+        <v>377713</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8370600172286877</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7966982218486799</v>
+        <v>0.793686552616251</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8697970345613002</v>
+        <v>0.8700780166182455</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>545</v>
@@ -3507,19 +3507,19 @@
         <v>588550</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>567228</v>
+        <v>565001</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>608803</v>
+        <v>608203</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8285563130270591</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.798539966539631</v>
+        <v>0.7954042094630633</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.857068880881921</v>
+        <v>0.8562235205322427</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>36136</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25789</v>
+        <v>24909</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48503</v>
+        <v>46352</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1620580947729177</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1156545553176788</v>
+        <v>0.1117074596722684</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2175194656968482</v>
+        <v>0.2078715692872155</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>67</v>
@@ -3632,19 +3632,19 @@
         <v>72818</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>58639</v>
+        <v>57399</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>90277</v>
+        <v>88642</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2173359841665997</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1750148020555162</v>
+        <v>0.1713142390587112</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.269444569466214</v>
+        <v>0.2645652998031856</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>102</v>
@@ -3653,19 +3653,19 @@
         <v>108954</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>90978</v>
+        <v>89992</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>127240</v>
+        <v>128449</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1952476153772819</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1630343726137225</v>
+        <v>0.1612677107565361</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2280164239944598</v>
+        <v>0.2301819852278311</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>186847</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>174480</v>
+        <v>176631</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>197194</v>
+        <v>198074</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8379419052270823</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7824805343031519</v>
+        <v>0.7921284307127847</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8843454446823212</v>
+        <v>0.8882925403277319</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>243</v>
@@ -3703,19 +3703,19 @@
         <v>262231</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>244772</v>
+        <v>246407</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>276410</v>
+        <v>277650</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7826640158334003</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.730555430533786</v>
+        <v>0.7354347001968145</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8249851979444838</v>
+        <v>0.8286857609412889</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>425</v>
@@ -3724,19 +3724,19 @@
         <v>449077</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>430791</v>
+        <v>429582</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>467053</v>
+        <v>468039</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.804752384622718</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7719835760055404</v>
+        <v>0.7698180147721686</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8369656273862776</v>
+        <v>0.8387322892434639</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>37286</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26356</v>
+        <v>27125</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48978</v>
+        <v>49575</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1690158463903752</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1194695339870666</v>
+        <v>0.1229545260508622</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2220150013319518</v>
+        <v>0.2247197282273913</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>47</v>
@@ -3849,19 +3849,19 @@
         <v>48872</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38043</v>
+        <v>36835</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63031</v>
+        <v>62390</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1911290693401095</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1487797315800251</v>
+        <v>0.1440533803755709</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.246500100524651</v>
+        <v>0.243992177075675</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>82</v>
@@ -3870,19 +3870,19 @@
         <v>86158</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>69772</v>
+        <v>70033</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>105311</v>
+        <v>104283</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1808871644845389</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1464851074204032</v>
+        <v>0.14703280081868</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2210983404434891</v>
+        <v>0.2189391367991139</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>183321</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>171629</v>
+        <v>171032</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>194251</v>
+        <v>193482</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8309841536096247</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.777984998668048</v>
+        <v>0.7752802717726087</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8805304660129332</v>
+        <v>0.8770454739491378</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>192</v>
@@ -3920,19 +3920,19 @@
         <v>206831</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>192672</v>
+        <v>193313</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>217660</v>
+        <v>218868</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8088709306598906</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.753499899475349</v>
+        <v>0.7560078229243246</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8512202684199749</v>
+        <v>0.8559466196244291</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>373</v>
@@ -3941,19 +3941,19 @@
         <v>390152</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>370999</v>
+        <v>372027</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>406538</v>
+        <v>406277</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8191128355154611</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7789016595565109</v>
+        <v>0.7810608632008861</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8535148925795969</v>
+        <v>0.85296719918132</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>28581</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19706</v>
+        <v>20279</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39467</v>
+        <v>38864</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2360043795294425</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1627216502806331</v>
+        <v>0.1674512914476228</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3258935620157765</v>
+        <v>0.3209140083473586</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -4066,19 +4066,19 @@
         <v>24728</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16256</v>
+        <v>17138</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>34719</v>
+        <v>36143</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1850730356232468</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1216689633504958</v>
+        <v>0.1282689231138052</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2598551649700897</v>
+        <v>0.2705078834819818</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>50</v>
@@ -4087,19 +4087,19 @@
         <v>53308</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38989</v>
+        <v>40833</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65693</v>
+        <v>66918</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2092883738260203</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1530695733991349</v>
+        <v>0.1603114421499576</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2579092266182643</v>
+        <v>0.2627192444258556</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>92522</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>81636</v>
+        <v>82239</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>101397</v>
+        <v>100824</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7639956204705575</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6741064379842233</v>
+        <v>0.6790859916526415</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8372783497193668</v>
+        <v>0.8325487085523772</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>100</v>
@@ -4137,19 +4137,19 @@
         <v>108882</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>98891</v>
+        <v>97467</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>117354</v>
+        <v>116472</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8149269643767532</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7401448350299102</v>
+        <v>0.7294921165180182</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8783310366495042</v>
+        <v>0.8717310768861947</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>186</v>
@@ -4158,19 +4158,19 @@
         <v>201405</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>189020</v>
+        <v>187795</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>215724</v>
+        <v>213880</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7907116261739797</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7420907733817357</v>
+        <v>0.7372807555741443</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8469304266008651</v>
+        <v>0.8396885578500424</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>153051</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>131392</v>
+        <v>130432</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>177104</v>
+        <v>177982</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1820056550174851</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.156250126712278</v>
+        <v>0.1551077666906239</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2106099612387887</v>
+        <v>0.2116541126483435</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>201</v>
@@ -4283,19 +4283,19 @@
         <v>217153</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>191737</v>
+        <v>190571</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>244242</v>
+        <v>246087</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1874467985447711</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1655080335550507</v>
+        <v>0.1645015980777072</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2108306980157468</v>
+        <v>0.2124226185655304</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>344</v>
@@ -4304,19 +4304,19 @@
         <v>370203</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>330784</v>
+        <v>334213</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>406216</v>
+        <v>406087</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1851583379593424</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1654425470612251</v>
+        <v>0.1671575359684509</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2031700799570719</v>
+        <v>0.2031057554314245</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>687860</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>663807</v>
+        <v>662929</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>709519</v>
+        <v>710479</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.817994344982515</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7893900387612116</v>
+        <v>0.7883458873516567</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8437498732877221</v>
+        <v>0.8448922333093764</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>871</v>
@@ -4354,19 +4354,19 @@
         <v>941323</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>914234</v>
+        <v>912389</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>966739</v>
+        <v>967905</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8125532014552289</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7891693019842532</v>
+        <v>0.7875773814344695</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8344919664449493</v>
+        <v>0.8354984019222929</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1529</v>
@@ -4375,19 +4375,19 @@
         <v>1629184</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1593171</v>
+        <v>1593300</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1668603</v>
+        <v>1665174</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8148416620406576</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7968299200429289</v>
+        <v>0.7968942445685756</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8345574529387751</v>
+        <v>0.8328424640315492</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>30763</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20527</v>
+        <v>21737</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40923</v>
+        <v>42387</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2750728895954673</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1835487186271056</v>
+        <v>0.1943652828136503</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3659172020636571</v>
+        <v>0.3790114813347715</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>51</v>
@@ -4740,19 +4740,19 @@
         <v>40136</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30306</v>
+        <v>29712</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53846</v>
+        <v>52436</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2077776706635229</v>
+        <v>0.207777670663523</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.156890351971321</v>
+        <v>0.1538144884227679</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2787484052899648</v>
+        <v>0.2714525178239615</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>80</v>
@@ -4761,19 +4761,19 @@
         <v>70899</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>57234</v>
+        <v>56642</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>89491</v>
+        <v>87332</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2324527280660894</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1876478255123419</v>
+        <v>0.1857089046547541</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2934093810753443</v>
+        <v>0.2863301190600098</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>81073</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>70913</v>
+        <v>69449</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>91309</v>
+        <v>90099</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7249271104045325</v>
+        <v>0.7249271104045327</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6340827979363429</v>
+        <v>0.6209885186652285</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8164512813728944</v>
+        <v>0.8056347171863499</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>227</v>
@@ -4811,19 +4811,19 @@
         <v>153033</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>139323</v>
+        <v>140733</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>162863</v>
+        <v>163457</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.792222329336477</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7212515947100352</v>
+        <v>0.728547482176038</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.843109648028679</v>
+        <v>0.8461855115772319</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>311</v>
@@ -4832,19 +4832,19 @@
         <v>234106</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>215514</v>
+        <v>217673</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>247771</v>
+        <v>248363</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7675472719339106</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7065906189246566</v>
+        <v>0.7136698809399905</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8123521744876583</v>
+        <v>0.8142910953452461</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>45833</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34599</v>
+        <v>36010</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56844</v>
+        <v>57822</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2608953798423352</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.196949615076522</v>
+        <v>0.2049790936110837</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3235724868201136</v>
+        <v>0.329140228652342</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>98</v>
@@ -4957,19 +4957,19 @@
         <v>69645</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>57093</v>
+        <v>57262</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>82721</v>
+        <v>82097</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2454166091422042</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2011845097545513</v>
+        <v>0.2017822831605143</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2914941096911735</v>
+        <v>0.2892940733075292</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>149</v>
@@ -4978,19 +4978,19 @@
         <v>115478</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>97149</v>
+        <v>99562</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>130540</v>
+        <v>133423</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2513349467449236</v>
+        <v>0.2513349467449235</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2114427773682168</v>
+        <v>0.2166954569009031</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2841182157296035</v>
+        <v>0.2903929165242224</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>129842</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>118831</v>
+        <v>117853</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>141076</v>
+        <v>139665</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7391046201576648</v>
+        <v>0.7391046201576649</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6764275131798863</v>
+        <v>0.670859771347658</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8030503849234781</v>
+        <v>0.795020906388916</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>333</v>
@@ -5028,19 +5028,19 @@
         <v>214138</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>201062</v>
+        <v>201686</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>226690</v>
+        <v>226521</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7545833908577958</v>
+        <v>0.7545833908577957</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7085058903088263</v>
+        <v>0.7107059266924708</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7988154902454486</v>
+        <v>0.7982177168394858</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>473</v>
@@ -5049,19 +5049,19 @@
         <v>343980</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>328918</v>
+        <v>326035</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>362309</v>
+        <v>359896</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7486650532550766</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7158817842703965</v>
+        <v>0.7096070834757775</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7885572226317832</v>
+        <v>0.7833045430990967</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>47905</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34710</v>
+        <v>36846</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61506</v>
+        <v>61758</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2464394939222276</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1785595237954601</v>
+        <v>0.1895512073683221</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3164120852018599</v>
+        <v>0.3177073208387388</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>79</v>
@@ -5174,19 +5174,19 @@
         <v>56472</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45601</v>
+        <v>46099</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70391</v>
+        <v>70280</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2396925667491355</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1935514523095953</v>
+        <v>0.1956659424497228</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2987716245164286</v>
+        <v>0.2983002276167266</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>130</v>
@@ -5195,19 +5195,19 @@
         <v>104377</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>88653</v>
+        <v>87535</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>122895</v>
+        <v>122735</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2427426794524171</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.206174404104214</v>
+        <v>0.203574441636491</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2858079533923429</v>
+        <v>0.2854374386894022</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>146482</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>132881</v>
+        <v>132629</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>159677</v>
+        <v>157541</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7535605060777723</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6835879147981396</v>
+        <v>0.6822926791612611</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8214404762045399</v>
+        <v>0.8104487926316778</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>264</v>
@@ -5245,19 +5245,19 @@
         <v>179130</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>165211</v>
+        <v>165322</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>190001</v>
+        <v>189503</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7603074332508646</v>
+        <v>0.7603074332508647</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7012283754835712</v>
+        <v>0.7016997723832726</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8064485476904046</v>
+        <v>0.804334057550276</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>421</v>
@@ -5266,19 +5266,19 @@
         <v>325613</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>307095</v>
+        <v>307255</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>341337</v>
+        <v>342455</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7572573205475829</v>
+        <v>0.7572573205475831</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7141920466076572</v>
+        <v>0.7145625613105976</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7938255958957861</v>
+        <v>0.7964255583635088</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>39704</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29403</v>
+        <v>28088</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54977</v>
+        <v>53084</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2061018299596449</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1526322706363235</v>
+        <v>0.1458038213906102</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.285382103516173</v>
+        <v>0.2755562858555298</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>72</v>
@@ -5391,19 +5391,19 @@
         <v>52189</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41165</v>
+        <v>41750</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63545</v>
+        <v>64500</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2521846932480162</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1989148944433116</v>
+        <v>0.201741829955486</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.307058368305521</v>
+        <v>0.3116742340284609</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>112</v>
@@ -5412,19 +5412,19 @@
         <v>91893</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>75901</v>
+        <v>75588</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>109121</v>
+        <v>107546</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2299681626832193</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1899487099514535</v>
+        <v>0.1891647010960516</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2730833152581927</v>
+        <v>0.2691413293408505</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>152938</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>137665</v>
+        <v>139558</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>163239</v>
+        <v>164554</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.793898170040355</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7146178964838273</v>
+        <v>0.7244437141444704</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8473677293636765</v>
+        <v>0.85419617860939</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>216</v>
@@ -5462,19 +5462,19 @@
         <v>154758</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>143402</v>
+        <v>142447</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>165782</v>
+        <v>165197</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7478153067519836</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6929416316944791</v>
+        <v>0.6883257659715392</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8010851055566883</v>
+        <v>0.798258170044514</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>364</v>
@@ -5483,19 +5483,19 @@
         <v>307696</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>290468</v>
+        <v>292043</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>323688</v>
+        <v>324001</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7700318373167806</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7269166847418076</v>
+        <v>0.7308586706591496</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8100512900485465</v>
+        <v>0.8108352989039483</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>164204</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>141497</v>
+        <v>142023</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>186575</v>
+        <v>189251</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2434315966693014</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2097683356699681</v>
+        <v>0.2105483369638515</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2765959273231624</v>
+        <v>0.2805640814916541</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>300</v>
@@ -5608,19 +5608,19 @@
         <v>218442</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>195454</v>
+        <v>197946</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>241781</v>
+        <v>242715</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2375660078383255</v>
+        <v>0.2375660078383256</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2125648905176009</v>
+        <v>0.215274878857511</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2629477882182812</v>
+        <v>0.2639631688282962</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>471</v>
@@ -5629,19 +5629,19 @@
         <v>382647</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>351871</v>
+        <v>348994</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>416464</v>
+        <v>413718</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2400481081073156</v>
+        <v>0.2400481081073157</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.220741464927485</v>
+        <v>0.2189365189067486</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2612628003466871</v>
+        <v>0.2595404017213068</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>510335</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>487964</v>
+        <v>485288</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>533042</v>
+        <v>532516</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7565684033306987</v>
+        <v>0.7565684033306985</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7234040726768385</v>
+        <v>0.7194359185083459</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7902316643300321</v>
+        <v>0.7894516630361483</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1040</v>
@@ -5679,19 +5679,19 @@
         <v>701060</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>677721</v>
+        <v>676787</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>724048</v>
+        <v>721556</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7624339921616744</v>
+        <v>0.7624339921616745</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7370522117817188</v>
+        <v>0.7360368311717037</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7874351094823993</v>
+        <v>0.7847251211424892</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1569</v>
@@ -5700,19 +5700,19 @@
         <v>1211394</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1177577</v>
+        <v>1180323</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1242170</v>
+        <v>1245047</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7599518918926842</v>
+        <v>0.7599518918926843</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7387371996533126</v>
+        <v>0.7404595982786932</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7792585350725149</v>
+        <v>0.7810634810932512</v>
       </c>
     </row>
     <row r="18">
